--- a/Section_29_Excel_Dashboard_2/Excel_Dashboard_2.xlsx
+++ b/Section_29_Excel_Dashboard_2/Excel_Dashboard_2.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csiba\Documents\Data analysis - Udemy\Data_Analysis_Udemy\Section_29_Excel_Dashboard_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EE71B8-F4FB-404F-B6B6-0A03CC01A7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9C0C87-9F7E-4FD9-A23F-840BE40599AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Production Dataset" sheetId="1" r:id="rId1"/>
+    <sheet name="3D Column Chart" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Production Dataset'!$A$1:$I$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Production Dataset'!$A$1:$K$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="35">
   <si>
     <t>ProductionID</t>
   </si>
@@ -126,7 +130,22 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>True Age</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age Groups</t>
+  </si>
+  <si>
+    <t>Production Cost per Unit</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of TotalCost</t>
   </si>
 </sst>
 </file>
@@ -162,9 +181,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,6 +207,2807 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel_Dashboard_2.xlsx]3D Column Chart!PivotTable1</c:name>
+    <c:fmtId val="7"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Total Production Cost by Product Type</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="30000"/>
+                  <a:satMod val="115000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="67500"/>
+                  <a:satMod val="115000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="100000"/>
+                  <a:satMod val="115000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <a:prstGeom prst="wedgeRectCallout">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c15:spPr>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3D Column Chart'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="30000"/>
+                    <a:satMod val="115000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="67500"/>
+                    <a:satMod val="115000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="100000"/>
+                    <a:satMod val="115000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3D Column Chart'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Automobiles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Machinery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3D Column Chart'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1152805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>604575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>703282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>910416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAA5-450A-96D2-B022444203D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1031805440"/>
+        <c:axId val="1031802080"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1031805440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1031802080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1031802080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1031805440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75826B30-A7E6-1056-9B20-E1DDF6388809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tamás Csiba" refreshedDate="46054.589418981479" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="120" xr:uid="{6F2F007E-A647-42EA-9347-DBB9676462F1}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:K121" sheet="Production Dataset"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="ProductionID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="120"/>
+    </cacheField>
+    <cacheField name="ProductionDate" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-09-22T00:00:00" maxDate="2024-09-15T00:00:00"/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Manager" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="ProductType" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Automobiles"/>
+        <s v="Furniture"/>
+        <s v="Machinery"/>
+        <s v="Electronics"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="UnitsProduced" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="32" maxValue="666"/>
+    </cacheField>
+    <cacheField name="TotalCost" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="679" maxValue="76076"/>
+    </cacheField>
+    <cacheField name="Gender" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="57"/>
+    </cacheField>
+    <cacheField name="Age Groups" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Production Cost per Unit" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.3287671232876712" maxValue="1115.4509803921569"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
+  <r>
+    <n v="1"/>
+    <d v="2024-03-29T00:00:00"/>
+    <s v="South"/>
+    <s v="John Doe"/>
+    <x v="0"/>
+    <n v="412"/>
+    <n v="22288"/>
+    <s v="Female"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="54.097087378640779"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <d v="2024-05-08T00:00:00"/>
+    <s v="West"/>
+    <s v="Laura Black"/>
+    <x v="1"/>
+    <n v="430"/>
+    <n v="66500"/>
+    <s v="Female"/>
+    <n v="52"/>
+    <s v="A3"/>
+    <n v="154.65116279069767"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <d v="2024-07-31T00:00:00"/>
+    <s v="North"/>
+    <s v="Sarah Lee"/>
+    <x v="2"/>
+    <n v="478"/>
+    <n v="76076"/>
+    <s v="Male"/>
+    <n v="36"/>
+    <s v="A2"/>
+    <n v="159.15481171548117"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <d v="2023-10-15T00:00:00"/>
+    <s v="West"/>
+    <s v="Mike Brown"/>
+    <x v="2"/>
+    <n v="459"/>
+    <n v="17069"/>
+    <s v="Unknown"/>
+    <n v="57"/>
+    <s v="A3"/>
+    <n v="37.187363834422655"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <d v="2024-06-06T00:00:00"/>
+    <s v="South"/>
+    <s v="Jane Smith"/>
+    <x v="2"/>
+    <n v="178"/>
+    <n v="41349"/>
+    <s v="Male"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="232.29775280898878"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <d v="2024-02-28T00:00:00"/>
+    <s v="West"/>
+    <s v="Jane Smith"/>
+    <x v="2"/>
+    <n v="401"/>
+    <n v="19691"/>
+    <s v="Male"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="49.104738154613464"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <d v="2024-06-29T00:00:00"/>
+    <s v="West"/>
+    <s v="Andrew Blue"/>
+    <x v="2"/>
+    <n v="68"/>
+    <n v="11696"/>
+    <s v="Male"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="172"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <d v="2024-01-08T00:00:00"/>
+    <s v="West"/>
+    <s v="David White"/>
+    <x v="3"/>
+    <n v="447"/>
+    <n v="52269"/>
+    <s v="Male"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="116.93288590604027"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <d v="2023-10-18T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="3"/>
+    <n v="55"/>
+    <n v="25893"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="470.78181818181821"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <d v="2024-08-04T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="0"/>
+    <n v="396"/>
+    <n v="38480"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="97.171717171717177"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <d v="2024-02-13T00:00:00"/>
+    <s v="West"/>
+    <s v="Emily Davis"/>
+    <x v="2"/>
+    <n v="494"/>
+    <n v="46767"/>
+    <s v="Female"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="94.670040485829958"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <d v="2024-04-28T00:00:00"/>
+    <s v="West"/>
+    <s v="Emily Davis"/>
+    <x v="0"/>
+    <n v="462"/>
+    <n v="26145"/>
+    <s v="Unknown"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="56.590909090909093"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <d v="2024-06-29T00:00:00"/>
+    <s v="North"/>
+    <s v="John Doe"/>
+    <x v="3"/>
+    <n v="435"/>
+    <n v="64090"/>
+    <s v="Female"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="147.33333333333334"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <d v="2024-06-22T00:00:00"/>
+    <s v="South"/>
+    <s v="Jane Smith"/>
+    <x v="0"/>
+    <n v="332"/>
+    <n v="679"/>
+    <s v="Female"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="2.0451807228915664"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <d v="2024-04-16T00:00:00"/>
+    <s v="North"/>
+    <s v="Nancy Grey"/>
+    <x v="0"/>
+    <n v="383"/>
+    <n v="39008"/>
+    <s v="Unknown"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="101.8485639686684"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <d v="2024-01-27T00:00:00"/>
+    <s v="North"/>
+    <s v="Jane Smith"/>
+    <x v="1"/>
+    <n v="193"/>
+    <n v="18796"/>
+    <s v="Male"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="97.388601036269435"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <d v="2023-10-16T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="2"/>
+    <n v="240"/>
+    <n v="65052"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="271.05"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <d v="2024-03-30T00:00:00"/>
+    <s v="West"/>
+    <s v="Chris Green"/>
+    <x v="0"/>
+    <n v="363"/>
+    <n v="38232"/>
+    <s v="Female"/>
+    <n v="49"/>
+    <s v="A3"/>
+    <n v="105.32231404958678"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <d v="2024-06-26T00:00:00"/>
+    <s v="West"/>
+    <s v="Chris Green"/>
+    <x v="0"/>
+    <n v="443"/>
+    <n v="50652"/>
+    <s v="Male"/>
+    <n v="49"/>
+    <s v="A3"/>
+    <n v="114.33860045146727"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <d v="2023-11-24T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="3"/>
+    <n v="331"/>
+    <n v="27140"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="81.993957703927492"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <d v="2024-01-13T00:00:00"/>
+    <s v="South"/>
+    <s v="Nancy Grey"/>
+    <x v="2"/>
+    <n v="250"/>
+    <n v="11385"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="45.54"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <d v="2024-01-03T00:00:00"/>
+    <s v="West"/>
+    <s v="Chris Green"/>
+    <x v="2"/>
+    <n v="180"/>
+    <n v="33684"/>
+    <s v="Female"/>
+    <n v="49"/>
+    <s v="A3"/>
+    <n v="187.13333333333333"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <d v="2024-08-16T00:00:00"/>
+    <s v="North"/>
+    <s v="Andrew Blue"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="42328"/>
+    <s v="Female"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="470.31111111111113"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="South"/>
+    <s v="Mike Brown"/>
+    <x v="2"/>
+    <n v="458"/>
+    <n v="42873"/>
+    <s v="Female"/>
+    <n v="57"/>
+    <s v="A3"/>
+    <n v="93.609170305676855"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <d v="2023-11-05T00:00:00"/>
+    <s v="West"/>
+    <s v="Jane Smith"/>
+    <x v="0"/>
+    <n v="439"/>
+    <n v="31392"/>
+    <s v="Male"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="71.50797266514806"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <d v="2024-08-26T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="0"/>
+    <n v="406"/>
+    <n v="47880"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="117.93103448275862"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <d v="2024-08-07T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="3"/>
+    <n v="422"/>
+    <n v="13490"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="31.966824644549764"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <d v="2023-12-26T00:00:00"/>
+    <s v="West"/>
+    <s v="Mike Brown"/>
+    <x v="0"/>
+    <n v="444"/>
+    <n v="7272"/>
+    <s v="Male"/>
+    <n v="57"/>
+    <s v="A3"/>
+    <n v="16.378378378378379"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <d v="2024-02-17T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="3"/>
+    <n v="499"/>
+    <n v="48316"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="96.825651302605209"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <d v="2023-10-01T00:00:00"/>
+    <s v="West"/>
+    <s v="Emily Davis"/>
+    <x v="0"/>
+    <n v="290"/>
+    <n v="15132"/>
+    <s v="Unknown"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="52.179310344827584"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <d v="2024-09-08T00:00:00"/>
+    <s v="North"/>
+    <s v="Nancy Grey"/>
+    <x v="3"/>
+    <n v="369"/>
+    <n v="5246"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="14.21680216802168"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <d v="2024-03-20T00:00:00"/>
+    <s v="East"/>
+    <s v="Nancy Grey"/>
+    <x v="0"/>
+    <n v="389"/>
+    <n v="37744"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="97.028277634961441"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <d v="2024-05-10T00:00:00"/>
+    <s v="East"/>
+    <s v="Emily Davis"/>
+    <x v="3"/>
+    <n v="511"/>
+    <n v="679"/>
+    <s v="Female"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="1.3287671232876712"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <d v="2023-11-21T00:00:00"/>
+    <s v="West"/>
+    <s v="David White"/>
+    <x v="2"/>
+    <n v="333"/>
+    <n v="48000"/>
+    <s v="Female"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="144.14414414414415"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <d v="2023-10-15T00:00:00"/>
+    <s v="West"/>
+    <s v="Laura Black"/>
+    <x v="2"/>
+    <n v="260"/>
+    <n v="34680"/>
+    <s v="Male"/>
+    <n v="52"/>
+    <s v="A3"/>
+    <n v="133.38461538461539"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <d v="2023-10-31T00:00:00"/>
+    <s v="West"/>
+    <s v="Jane Smith"/>
+    <x v="2"/>
+    <n v="460"/>
+    <n v="50274"/>
+    <s v="Male"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="109.29130434782608"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <d v="2024-03-26T00:00:00"/>
+    <s v="North"/>
+    <s v="Chris Green"/>
+    <x v="0"/>
+    <n v="145"/>
+    <n v="43615"/>
+    <s v="Male"/>
+    <n v="49"/>
+    <s v="A3"/>
+    <n v="300.79310344827587"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <d v="2024-06-24T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="3"/>
+    <n v="115"/>
+    <n v="14076"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="122.4"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <d v="2024-07-16T00:00:00"/>
+    <s v="North"/>
+    <s v="Sarah Lee"/>
+    <x v="0"/>
+    <n v="248"/>
+    <n v="12870"/>
+    <s v="Female"/>
+    <n v="36"/>
+    <s v="A2"/>
+    <n v="51.895161290322584"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <d v="2023-10-22T00:00:00"/>
+    <s v="East"/>
+    <s v="Laura Black"/>
+    <x v="0"/>
+    <n v="165"/>
+    <n v="679"/>
+    <s v="Male"/>
+    <n v="52"/>
+    <s v="A3"/>
+    <n v="4.1151515151515152"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <d v="2024-04-25T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="1"/>
+    <n v="51"/>
+    <n v="35280"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="691.76470588235293"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <d v="2024-05-12T00:00:00"/>
+    <s v="North"/>
+    <s v="Nancy Grey"/>
+    <x v="0"/>
+    <n v="382"/>
+    <n v="37490"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="98.141361256544499"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <d v="2023-11-22T00:00:00"/>
+    <s v="North"/>
+    <s v="Nancy Grey"/>
+    <x v="0"/>
+    <n v="354"/>
+    <n v="679"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="1.9180790960451977"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <d v="2024-06-08T00:00:00"/>
+    <s v="East"/>
+    <s v="Laura Black"/>
+    <x v="1"/>
+    <n v="368"/>
+    <n v="46068"/>
+    <s v="Female"/>
+    <n v="52"/>
+    <s v="A3"/>
+    <n v="125.18478260869566"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <d v="2024-06-15T00:00:00"/>
+    <s v="West"/>
+    <s v="Sarah Lee"/>
+    <x v="3"/>
+    <n v="79"/>
+    <n v="11078"/>
+    <s v="Female"/>
+    <n v="36"/>
+    <s v="A2"/>
+    <n v="140.22784810126583"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <d v="2023-10-08T00:00:00"/>
+    <s v="West"/>
+    <s v="Andrew Blue"/>
+    <x v="0"/>
+    <n v="231"/>
+    <n v="32045"/>
+    <s v="Female"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="138.72294372294371"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <d v="2023-10-29T00:00:00"/>
+    <s v="East"/>
+    <s v="Mike Brown"/>
+    <x v="0"/>
+    <n v="288"/>
+    <n v="33284"/>
+    <s v="Female"/>
+    <n v="57"/>
+    <s v="A3"/>
+    <n v="115.56944444444444"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <d v="2023-09-22T00:00:00"/>
+    <s v="North"/>
+    <s v="Jane Smith"/>
+    <x v="3"/>
+    <n v="214"/>
+    <n v="11954"/>
+    <s v="Female"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="55.859813084112147"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <d v="2024-02-28T00:00:00"/>
+    <s v="South"/>
+    <s v="Jane Smith"/>
+    <x v="2"/>
+    <n v="74"/>
+    <n v="36708"/>
+    <s v="Male"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="496.05405405405406"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <d v="2023-11-04T00:00:00"/>
+    <s v="North"/>
+    <s v="John Doe"/>
+    <x v="1"/>
+    <n v="177"/>
+    <n v="30600"/>
+    <s v="Male"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="172.88135593220338"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <d v="2024-03-13T00:00:00"/>
+    <s v="South"/>
+    <s v="Mike Brown"/>
+    <x v="2"/>
+    <n v="358"/>
+    <n v="13568"/>
+    <s v="Female"/>
+    <n v="57"/>
+    <s v="A3"/>
+    <n v="37.899441340782126"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <d v="2024-02-28T00:00:00"/>
+    <s v="South"/>
+    <s v="Nancy Grey"/>
+    <x v="2"/>
+    <n v="343"/>
+    <n v="33344"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="97.212827988338191"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <d v="2023-10-17T00:00:00"/>
+    <s v="East"/>
+    <s v="Nancy Grey"/>
+    <x v="2"/>
+    <n v="63"/>
+    <n v="3960"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="62.857142857142854"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <d v="2024-08-06T00:00:00"/>
+    <s v="West"/>
+    <s v="David White"/>
+    <x v="0"/>
+    <n v="429"/>
+    <n v="58208"/>
+    <s v="Male"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="135.68298368298369"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <d v="2024-09-14T00:00:00"/>
+    <s v="South"/>
+    <s v="Nancy Grey"/>
+    <x v="1"/>
+    <n v="491"/>
+    <n v="59458"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="121.09572301425662"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <d v="2023-09-24T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="0"/>
+    <n v="344"/>
+    <n v="13872"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="40.325581395348834"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <d v="2024-01-05T00:00:00"/>
+    <s v="West"/>
+    <s v="John Doe"/>
+    <x v="1"/>
+    <n v="255"/>
+    <n v="57706"/>
+    <s v="Female"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="226.29803921568629"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <d v="2024-01-01T00:00:00"/>
+    <s v="South"/>
+    <s v="Nancy Grey"/>
+    <x v="0"/>
+    <n v="160"/>
+    <n v="59248"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="370.3"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <d v="2024-06-10T00:00:00"/>
+    <s v="North"/>
+    <s v="John Doe"/>
+    <x v="3"/>
+    <n v="322"/>
+    <n v="29440"/>
+    <s v="Male"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="91.428571428571431"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <d v="2024-03-21T00:00:00"/>
+    <s v="North"/>
+    <s v="John Doe"/>
+    <x v="2"/>
+    <n v="178"/>
+    <n v="679"/>
+    <s v="Male"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="3.8146067415730336"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <d v="2023-12-26T00:00:00"/>
+    <s v="West"/>
+    <s v="Laura Black"/>
+    <x v="0"/>
+    <n v="151"/>
+    <n v="8475"/>
+    <s v="Female"/>
+    <n v="52"/>
+    <s v="A3"/>
+    <n v="56.12582781456954"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <d v="2024-02-28T00:00:00"/>
+    <s v="West"/>
+    <s v="Mike Brown"/>
+    <x v="2"/>
+    <n v="535"/>
+    <n v="44330"/>
+    <s v="Male"/>
+    <n v="57"/>
+    <s v="A3"/>
+    <n v="82.859813084112147"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <d v="2024-08-06T00:00:00"/>
+    <s v="East"/>
+    <s v="John Doe"/>
+    <x v="0"/>
+    <n v="305"/>
+    <n v="3186"/>
+    <s v="Female"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="10.445901639344262"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <d v="2024-05-20T00:00:00"/>
+    <s v="West"/>
+    <s v="John Doe"/>
+    <x v="3"/>
+    <n v="188"/>
+    <n v="679"/>
+    <s v="Female"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="3.6117021276595747"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <d v="2024-03-27T00:00:00"/>
+    <s v="East"/>
+    <s v="Nancy Grey"/>
+    <x v="0"/>
+    <n v="495"/>
+    <n v="679"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="1.3717171717171717"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <d v="2024-04-08T00:00:00"/>
+    <s v="West"/>
+    <s v="Andrew Blue"/>
+    <x v="3"/>
+    <n v="190"/>
+    <n v="28050"/>
+    <s v="Female"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="147.63157894736841"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <d v="2023-11-19T00:00:00"/>
+    <s v="West"/>
+    <s v="Jane Smith"/>
+    <x v="0"/>
+    <n v="511"/>
+    <n v="16698"/>
+    <s v="Unknown"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="32.677103718199611"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <d v="2024-02-28T00:00:00"/>
+    <s v="South"/>
+    <s v="Chris Green"/>
+    <x v="0"/>
+    <n v="308"/>
+    <n v="27956"/>
+    <s v="Unknown"/>
+    <n v="49"/>
+    <s v="A3"/>
+    <n v="90.766233766233768"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <d v="2024-08-28T00:00:00"/>
+    <s v="East"/>
+    <s v="Sarah Lee"/>
+    <x v="1"/>
+    <n v="183"/>
+    <n v="679"/>
+    <s v="Male"/>
+    <n v="36"/>
+    <s v="A2"/>
+    <n v="3.7103825136612021"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <d v="2023-11-02T00:00:00"/>
+    <s v="North"/>
+    <s v="Nancy Grey"/>
+    <x v="1"/>
+    <n v="335"/>
+    <n v="36984"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="110.4"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <d v="2024-02-28T00:00:00"/>
+    <s v="North"/>
+    <s v="Chris Green"/>
+    <x v="1"/>
+    <n v="95"/>
+    <n v="46800"/>
+    <s v="Male"/>
+    <n v="49"/>
+    <s v="A3"/>
+    <n v="492.63157894736844"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <d v="2024-03-05T00:00:00"/>
+    <s v="North"/>
+    <s v="Nancy Grey"/>
+    <x v="1"/>
+    <n v="218"/>
+    <n v="7125"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="32.683486238532112"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <d v="2024-08-02T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="2"/>
+    <n v="265"/>
+    <n v="12320"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="46.490566037735846"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <d v="2023-09-28T00:00:00"/>
+    <s v="West"/>
+    <s v="Laura Black"/>
+    <x v="3"/>
+    <n v="213"/>
+    <n v="42028"/>
+    <s v="Female"/>
+    <n v="52"/>
+    <s v="A3"/>
+    <n v="197.31455399061034"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <d v="2024-03-06T00:00:00"/>
+    <s v="West"/>
+    <s v="David White"/>
+    <x v="0"/>
+    <n v="128"/>
+    <n v="679"/>
+    <s v="Male"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="5.3046875"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <d v="2023-10-18T00:00:00"/>
+    <s v="North"/>
+    <s v="John Doe"/>
+    <x v="3"/>
+    <n v="208"/>
+    <n v="25758"/>
+    <s v="Unknown"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="123.83653846153847"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <d v="2024-07-05T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="1"/>
+    <n v="115"/>
+    <n v="34804"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="302.64347826086959"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <d v="2024-06-26T00:00:00"/>
+    <s v="South"/>
+    <s v="Jane Smith"/>
+    <x v="0"/>
+    <n v="465"/>
+    <n v="679"/>
+    <s v="Female"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="1.4602150537634409"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <d v="2024-09-09T00:00:00"/>
+    <s v="East"/>
+    <s v="Nancy Grey"/>
+    <x v="2"/>
+    <n v="519"/>
+    <n v="45312"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="87.306358381502889"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <d v="2024-02-28T00:00:00"/>
+    <s v="South"/>
+    <s v="Mike Brown"/>
+    <x v="2"/>
+    <n v="380"/>
+    <n v="44525"/>
+    <s v="Unknown"/>
+    <n v="57"/>
+    <s v="A3"/>
+    <n v="117.17105263157895"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <d v="2024-02-13T00:00:00"/>
+    <s v="East"/>
+    <s v="Nancy Grey"/>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="3132"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="97.875"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <d v="2024-06-14T00:00:00"/>
+    <s v="East"/>
+    <s v="John Doe"/>
+    <x v="1"/>
+    <n v="130"/>
+    <n v="16740"/>
+    <s v="Female"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="128.76923076923077"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <d v="2023-11-24T00:00:00"/>
+    <s v="West"/>
+    <s v="Jane Smith"/>
+    <x v="2"/>
+    <n v="545"/>
+    <n v="65250"/>
+    <s v="Female"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="119.72477064220183"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <d v="2024-03-18T00:00:00"/>
+    <s v="West"/>
+    <s v="Andrew Blue"/>
+    <x v="3"/>
+    <n v="84"/>
+    <n v="10688"/>
+    <s v="Female"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="127.23809523809524"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <d v="2024-01-18T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="3"/>
+    <n v="192"/>
+    <n v="18648"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="97.125"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <d v="2024-01-16T00:00:00"/>
+    <s v="South"/>
+    <s v="Andrew Blue"/>
+    <x v="0"/>
+    <n v="60"/>
+    <n v="5822"/>
+    <s v="Male"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="97.033333333333331"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <d v="2024-02-08T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="1"/>
+    <n v="209"/>
+    <n v="51221"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="245.07655502392345"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <d v="2024-01-14T00:00:00"/>
+    <s v="North"/>
+    <s v="Andrew Blue"/>
+    <x v="1"/>
+    <n v="264"/>
+    <n v="75332"/>
+    <s v="Female"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="285.34848484848487"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <d v="2024-02-26T00:00:00"/>
+    <s v="West"/>
+    <s v="Jane Smith"/>
+    <x v="3"/>
+    <n v="97"/>
+    <n v="679"/>
+    <s v="Female"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <d v="2023-12-29T00:00:00"/>
+    <s v="West"/>
+    <s v="Jane Smith"/>
+    <x v="1"/>
+    <n v="404"/>
+    <n v="13310"/>
+    <s v="Female"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="32.945544554455445"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <d v="2024-06-01T00:00:00"/>
+    <s v="North"/>
+    <s v="Nancy Grey"/>
+    <x v="2"/>
+    <n v="386"/>
+    <n v="47952"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="124.2279792746114"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <d v="2024-02-07T00:00:00"/>
+    <s v="South"/>
+    <s v="John Doe"/>
+    <x v="2"/>
+    <n v="214"/>
+    <n v="4984"/>
+    <s v="Male"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="23.289719626168225"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <d v="2023-12-17T00:00:00"/>
+    <s v="South"/>
+    <s v="David White"/>
+    <x v="0"/>
+    <n v="366"/>
+    <n v="4131"/>
+    <s v="Male"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="11.28688524590164"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <d v="2024-05-15T00:00:00"/>
+    <s v="North"/>
+    <s v="Emily Davis"/>
+    <x v="0"/>
+    <n v="173"/>
+    <n v="24549"/>
+    <s v="Male"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="141.90173410404626"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <d v="2024-08-17T00:00:00"/>
+    <s v="North"/>
+    <s v="Nancy Grey"/>
+    <x v="1"/>
+    <n v="306"/>
+    <n v="679"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="2.2189542483660132"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <d v="2024-02-25T00:00:00"/>
+    <s v="North"/>
+    <s v="Andrew Blue"/>
+    <x v="0"/>
+    <n v="128"/>
+    <n v="35088"/>
+    <s v="Male"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="274.125"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <d v="2024-01-02T00:00:00"/>
+    <s v="West"/>
+    <s v="John Doe"/>
+    <x v="3"/>
+    <n v="368"/>
+    <n v="25254"/>
+    <s v="Female"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="68.625"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <d v="2023-12-22T00:00:00"/>
+    <s v="West"/>
+    <s v="Mike Brown"/>
+    <x v="2"/>
+    <n v="222"/>
+    <n v="17500"/>
+    <s v="Male"/>
+    <n v="57"/>
+    <s v="A3"/>
+    <n v="78.828828828828833"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <d v="2024-06-21T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="3"/>
+    <n v="216"/>
+    <n v="36934"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="170.99074074074073"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <d v="2023-12-26T00:00:00"/>
+    <s v="West"/>
+    <s v="Laura Black"/>
+    <x v="3"/>
+    <n v="307"/>
+    <n v="679"/>
+    <s v="Female"/>
+    <n v="52"/>
+    <s v="A3"/>
+    <n v="2.2117263843648209"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <d v="2023-10-16T00:00:00"/>
+    <s v="South"/>
+    <s v="John Doe"/>
+    <x v="1"/>
+    <n v="384"/>
+    <n v="40565"/>
+    <s v="Female"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="105.63802083333333"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <d v="2024-07-24T00:00:00"/>
+    <s v="East"/>
+    <s v="Jane Smith"/>
+    <x v="0"/>
+    <n v="376"/>
+    <n v="679"/>
+    <s v="Female"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="1.8058510638297873"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <d v="2023-12-14T00:00:00"/>
+    <s v="East"/>
+    <s v="Mike Brown"/>
+    <x v="0"/>
+    <n v="97"/>
+    <n v="679"/>
+    <s v="Female"/>
+    <n v="57"/>
+    <s v="A3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <d v="2023-11-13T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="2"/>
+    <n v="359"/>
+    <n v="12753"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="35.523676880222844"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <d v="2024-02-28T00:00:00"/>
+    <s v="North"/>
+    <s v="Nancy Grey"/>
+    <x v="2"/>
+    <n v="318"/>
+    <n v="16864"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="53.031446540880502"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <d v="2024-04-10T00:00:00"/>
+    <s v="South"/>
+    <s v="Nancy Grey"/>
+    <x v="0"/>
+    <n v="51"/>
+    <n v="56888"/>
+    <s v="Female"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="1115.4509803921569"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <d v="2024-04-30T00:00:00"/>
+    <s v="East"/>
+    <s v="Andrew Blue"/>
+    <x v="2"/>
+    <n v="236"/>
+    <n v="679"/>
+    <s v="Unknown"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="2.8771186440677967"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <d v="2023-12-04T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="0"/>
+    <n v="214"/>
+    <n v="31122"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="145.42990654205607"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <d v="2023-11-26T00:00:00"/>
+    <s v="East"/>
+    <s v="David White"/>
+    <x v="0"/>
+    <n v="86"/>
+    <n v="25853"/>
+    <s v="Female"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="300.61627906976742"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <d v="2024-04-01T00:00:00"/>
+    <s v="West"/>
+    <s v="Laura Black"/>
+    <x v="2"/>
+    <n v="155"/>
+    <n v="11092"/>
+    <s v="Female"/>
+    <n v="52"/>
+    <s v="A3"/>
+    <n v="71.561290322580646"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <d v="2024-07-24T00:00:00"/>
+    <s v="North"/>
+    <s v="Jane Smith"/>
+    <x v="3"/>
+    <n v="319"/>
+    <n v="4221"/>
+    <s v="Male"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="13.231974921630094"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <d v="2024-08-23T00:00:00"/>
+    <s v="East"/>
+    <s v="Emily Davis"/>
+    <x v="0"/>
+    <n v="62"/>
+    <n v="31500"/>
+    <s v="Male"/>
+    <n v="25"/>
+    <s v="A1"/>
+    <n v="508.06451612903226"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <d v="2024-03-19T00:00:00"/>
+    <s v="East"/>
+    <s v="Jane Smith"/>
+    <x v="0"/>
+    <n v="81"/>
+    <n v="31414"/>
+    <s v="Female"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="387.82716049382714"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <d v="2023-11-03T00:00:00"/>
+    <s v="North"/>
+    <s v="Mike Brown"/>
+    <x v="0"/>
+    <n v="126"/>
+    <n v="40446"/>
+    <s v="Unknown"/>
+    <n v="57"/>
+    <s v="A3"/>
+    <n v="321"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <d v="2023-11-02T00:00:00"/>
+    <s v="West"/>
+    <s v="Jane Smith"/>
+    <x v="0"/>
+    <n v="541"/>
+    <n v="42432"/>
+    <s v="Female"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="78.432532347504619"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <d v="2023-11-10T00:00:00"/>
+    <s v="North"/>
+    <s v="Andrew Blue"/>
+    <x v="1"/>
+    <n v="666"/>
+    <n v="64635"/>
+    <s v="Male"/>
+    <n v="28"/>
+    <s v="A1"/>
+    <n v="97.049549549549553"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <d v="2024-03-23T00:00:00"/>
+    <s v="North"/>
+    <s v="Jane Smith"/>
+    <x v="3"/>
+    <n v="527"/>
+    <n v="51168"/>
+    <s v="Male"/>
+    <n v="26"/>
+    <s v="A1"/>
+    <n v="97.092979127134726"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <d v="2023-12-13T00:00:00"/>
+    <s v="West"/>
+    <s v="Nancy Grey"/>
+    <x v="0"/>
+    <n v="289"/>
+    <n v="24948"/>
+    <s v="Male"/>
+    <n v="42"/>
+    <s v="A2"/>
+    <n v="86.325259515570934"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <d v="2024-01-14T00:00:00"/>
+    <s v="West"/>
+    <s v="Mike Brown"/>
+    <x v="3"/>
+    <n v="199"/>
+    <n v="56118"/>
+    <s v="Unknown"/>
+    <n v="57"/>
+    <s v="A3"/>
+    <n v="282"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <d v="2024-03-10T00:00:00"/>
+    <s v="East"/>
+    <s v="Sarah Lee"/>
+    <x v="0"/>
+    <n v="497"/>
+    <n v="46548"/>
+    <s v="Female"/>
+    <n v="36"/>
+    <s v="A2"/>
+    <n v="93.6579476861167"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E022B28-5FB1-442C-815A-B38589741971}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TotalCost" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A73" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -464,9 +3290,11 @@
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,245 +3322,315 @@
       <c r="I1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45191</v>
+        <v>45380</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>214</v>
+        <v>412</v>
       </c>
       <c r="G2">
-        <v>11954</v>
+        <v>22288</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(I2&lt;=35, "A1",IF(I2&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K2" s="2">
+        <f>G2/F2</f>
+        <v>54.097087378640779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45193</v>
+        <v>45420</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="G3">
-        <v>13872</v>
+        <v>66500</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(I3&lt;=35, "A1",IF(I3&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K3" s="2">
+        <f>G3/F3</f>
+        <v>154.65116279069767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45197</v>
+        <v>45504</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>213</v>
+        <v>478</v>
       </c>
       <c r="G4">
-        <v>42028</v>
+        <v>76076</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(I4&lt;=35, "A1",IF(I4&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K4" s="2">
+        <f>G4/F4</f>
+        <v>159.15481171548117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45200</v>
+        <v>45214</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>290</v>
+        <v>459</v>
       </c>
       <c r="G5">
-        <v>15132</v>
+        <v>17069</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
       </c>
       <c r="I5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(I5&lt;=35, "A1",IF(I5&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K5" s="2">
+        <f>G5/F5</f>
+        <v>37.187363834422655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45207</v>
+        <v>45449</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="G6">
-        <v>32045</v>
+        <v>41349</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(I6&lt;=35, "A1",IF(I6&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K6" s="2">
+        <f>G6/F6</f>
+        <v>232.29775280898878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>45214</v>
+        <v>45350</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7">
-        <v>260</v>
+        <v>401</v>
       </c>
       <c r="G7">
-        <v>34680</v>
+        <v>19691</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(I7&lt;=35, "A1",IF(I7&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K7" s="2">
+        <f>G7/F7</f>
+        <v>49.104738154613464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45214</v>
+        <v>45472</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8">
-        <v>459</v>
+        <v>68</v>
       </c>
       <c r="G8">
-        <v>17069</v>
+        <v>11696</v>
       </c>
       <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
         <v>28</v>
       </c>
-      <c r="I8">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J8" t="str">
+        <f>IF(I8&lt;=35, "A1",IF(I8&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K8" s="2">
+        <f>G8/F8</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>45215</v>
+        <v>45299</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>447</v>
+      </c>
+      <c r="G9">
+        <v>52269</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>28</v>
+      </c>
+      <c r="J9" t="str">
+        <f>IF(I9&lt;=35, "A1",IF(I9&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K9" s="2">
+        <f>G9/F9</f>
+        <v>116.93288590604027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>384</v>
-      </c>
-      <c r="G9">
-        <v>40565</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>17</v>
-      </c>
       <c r="B10" s="1">
-        <v>45215</v>
+        <v>45217</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -741,245 +3639,309 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="G10">
-        <v>65052</v>
+        <v>25893</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I10">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J10" t="str">
+        <f>IF(I10&lt;=35, "A1",IF(I10&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K10" s="2">
+        <f>G10/F10</f>
+        <v>470.78181818181821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>45216</v>
+        <v>45508</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>63</v>
+        <v>396</v>
       </c>
       <c r="G11">
-        <v>3960</v>
+        <v>38480</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I11">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J11" t="str">
+        <f>IF(I11&lt;=35, "A1",IF(I11&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K11" s="2">
+        <f>G11/F11</f>
+        <v>97.171717171717177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>45217</v>
+        <v>45335</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>208</v>
+        <v>494</v>
       </c>
       <c r="G12">
-        <v>25758</v>
+        <v>46767</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I12">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J12" t="str">
+        <f>IF(I12&lt;=35, "A1",IF(I12&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K12" s="2">
+        <f>G12/F12</f>
+        <v>94.670040485829958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>45217</v>
+        <v>45410</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>462</v>
+      </c>
+      <c r="G13">
+        <v>26145</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(I13&lt;=35, "A1",IF(I13&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K13" s="2">
+        <f>G13/F13</f>
+        <v>56.590909090909093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45472</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="F13">
-        <v>55</v>
-      </c>
-      <c r="G13">
-        <v>25893</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45221</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
       <c r="F14">
-        <v>165</v>
+        <v>435</v>
       </c>
       <c r="G14">
-        <v>679</v>
+        <v>64090</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J14" t="str">
+        <f>IF(I14&lt;=35, "A1",IF(I14&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K14" s="2">
+        <f>G14/F14</f>
+        <v>147.33333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>45228</v>
+        <v>45465</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="G15">
-        <v>33284</v>
+        <v>679</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
       </c>
       <c r="I15">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J15" t="str">
+        <f>IF(I15&lt;=35, "A1",IF(I15&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K15" s="2">
+        <f>G15/F15</f>
+        <v>2.0451807228915664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>45230</v>
+        <v>45398</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>460</v>
+        <v>383</v>
       </c>
       <c r="G16">
-        <v>50274</v>
+        <v>39008</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I16">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(I16&lt;=35, "A1",IF(I16&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K16" s="2">
+        <f>G16/F16</f>
+        <v>101.8485639686684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>45232</v>
+        <v>45318</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>541</v>
+        <v>193</v>
       </c>
       <c r="G17">
-        <v>42432</v>
+        <v>18796</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I17">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J17" t="str">
+        <f>IF(I17&lt;=35, "A1",IF(I17&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K17" s="2">
+        <f>G17/F17</f>
+        <v>97.388601036269435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>45232</v>
+        <v>45215</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="G18">
-        <v>36984</v>
+        <v>65052</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -987,274 +3949,354 @@
       <c r="I18">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J18" t="str">
+        <f>IF(I18&lt;=35, "A1",IF(I18&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K18" s="2">
+        <f>G18/F18</f>
+        <v>271.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>45233</v>
+        <v>45381</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19">
-        <v>126</v>
+        <v>363</v>
       </c>
       <c r="G19">
-        <v>40446</v>
+        <v>38232</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I19">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(I19&lt;=35, "A1",IF(I19&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K19" s="2">
+        <f>G19/F19</f>
+        <v>105.32231404958678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>45234</v>
+        <v>45469</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>177</v>
+        <v>443</v>
       </c>
       <c r="G20">
-        <v>30600</v>
+        <v>50652</v>
       </c>
       <c r="H20" t="s">
         <v>18</v>
       </c>
       <c r="I20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(I20&lt;=35, "A1",IF(I20&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K20" s="2">
+        <f>G20/F20</f>
+        <v>114.33860045146727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>45235</v>
+        <v>45254</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>439</v>
+        <v>331</v>
       </c>
       <c r="G21">
-        <v>31392</v>
+        <v>27140</v>
       </c>
       <c r="H21" t="s">
         <v>18</v>
       </c>
       <c r="I21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J21" t="str">
+        <f>IF(I21&lt;=35, "A1",IF(I21&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K21" s="2">
+        <f>G21/F21</f>
+        <v>81.993957703927492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>45240</v>
+        <v>45304</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>666</v>
+        <v>250</v>
       </c>
       <c r="G22">
-        <v>64635</v>
+        <v>11385</v>
       </c>
       <c r="H22" t="s">
         <v>18</v>
       </c>
       <c r="I22">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J22" t="str">
+        <f>IF(I22&lt;=35, "A1",IF(I22&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K22" s="2">
+        <f>G22/F22</f>
+        <v>45.54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>45243</v>
+        <v>45294</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="G23">
-        <v>12753</v>
+        <v>33684</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I23">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="J23" t="str">
+        <f>IF(I23&lt;=35, "A1",IF(I23&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K23" s="2">
+        <f>G23/F23</f>
+        <v>187.13333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>45249</v>
+        <v>45520</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24">
-        <v>511</v>
+        <v>90</v>
       </c>
       <c r="G24">
-        <v>16698</v>
+        <v>42328</v>
       </c>
       <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24">
         <v>28</v>
       </c>
-      <c r="I24">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J24" t="str">
+        <f>IF(I24&lt;=35, "A1",IF(I24&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K24" s="2">
+        <f>G24/F24</f>
+        <v>470.31111111111113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>45251</v>
+        <v>45296</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
       <c r="F25">
-        <v>333</v>
+        <v>458</v>
       </c>
       <c r="G25">
-        <v>48000</v>
+        <v>42873</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
       </c>
       <c r="I25">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="J25" t="str">
+        <f>IF(I25&lt;=35, "A1",IF(I25&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K25" s="2">
+        <f>G25/F25</f>
+        <v>93.609170305676855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>45252</v>
+        <v>45235</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>354</v>
+        <v>439</v>
       </c>
       <c r="G26">
-        <v>679</v>
+        <v>31392</v>
       </c>
       <c r="H26" t="s">
         <v>18</v>
       </c>
       <c r="I26">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J26" t="str">
+        <f>IF(I26&lt;=35, "A1",IF(I26&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K26" s="2">
+        <f>G26/F26</f>
+        <v>71.50797266514806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>45254</v>
+        <v>45530</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>545</v>
+        <v>406</v>
       </c>
       <c r="G27">
-        <v>65250</v>
+        <v>47880</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J27" t="str">
+        <f>IF(I27&lt;=35, "A1",IF(I27&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K27" s="2">
+        <f>G27/F27</f>
+        <v>117.93103448275862</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>45254</v>
+        <v>45511</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1266,53 +4308,69 @@
         <v>23</v>
       </c>
       <c r="F28">
-        <v>331</v>
+        <v>422</v>
       </c>
       <c r="G28">
-        <v>27140</v>
+        <v>13490</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I28">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J28" t="str">
+        <f>IF(I28&lt;=35, "A1",IF(I28&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K28" s="2">
+        <f>G28/F28</f>
+        <v>31.966824644549764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>45256</v>
+        <v>45286</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>86</v>
+        <v>444</v>
       </c>
       <c r="G29">
-        <v>25853</v>
+        <v>7272</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="J29" t="str">
+        <f>IF(I29&lt;=35, "A1",IF(I29&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K29" s="2">
+        <f>G29/F29</f>
+        <v>16.378378378378379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>45264</v>
+        <v>45339</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1321,172 +4379,220 @@
         <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F30">
-        <v>214</v>
+        <v>499</v>
       </c>
       <c r="G30">
-        <v>31122</v>
+        <v>48316</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I30">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J30" t="str">
+        <f>IF(I30&lt;=35, "A1",IF(I30&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K30" s="2">
+        <f>G30/F30</f>
+        <v>96.825651302605209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>45273</v>
+        <v>45200</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G31">
-        <v>24948</v>
+        <v>15132</v>
       </c>
       <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31">
+        <v>25</v>
+      </c>
+      <c r="J31" t="str">
+        <f>IF(I31&lt;=35, "A1",IF(I31&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K31" s="2">
+        <f>G31/F31</f>
+        <v>52.179310344827584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45543</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32">
+        <v>369</v>
+      </c>
+      <c r="G32">
+        <v>5246</v>
+      </c>
+      <c r="H32" t="s">
         <v>18</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>103</v>
-      </c>
-      <c r="B32" s="1">
-        <v>45274</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="J32" t="str">
+        <f>IF(I32&lt;=35, "A1",IF(I32&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K32" s="2">
+        <f>G32/F32</f>
+        <v>14.21680216802168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45371</v>
+      </c>
+      <c r="C33" t="s">
         <v>27</v>
       </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>97</v>
-      </c>
-      <c r="G32">
-        <v>679</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>93</v>
-      </c>
-      <c r="B33" s="1">
-        <v>45277</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="G33">
-        <v>4131</v>
+        <v>37744</v>
       </c>
       <c r="H33" t="s">
         <v>18</v>
       </c>
       <c r="I33">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J33" t="str">
+        <f>IF(I33&lt;=35, "A1",IF(I33&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K33" s="2">
+        <f>G33/F33</f>
+        <v>97.028277634961441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>45282</v>
+        <v>45422</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>222</v>
+        <v>511</v>
       </c>
       <c r="G34">
-        <v>17500</v>
+        <v>679</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I34">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J34" t="str">
+        <f>IF(I34&lt;=35, "A1",IF(I34&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K34" s="2">
+        <f>G34/F34</f>
+        <v>1.3287671232876712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>45286</v>
+        <v>45251</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F35">
-        <v>151</v>
+        <v>333</v>
       </c>
       <c r="G35">
-        <v>8475</v>
+        <v>48000</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
       </c>
       <c r="I35">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="J35" t="str">
+        <f>IF(I35&lt;=35, "A1",IF(I35&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K35" s="2">
+        <f>G35/F35</f>
+        <v>144.14414414414415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>45286</v>
+        <v>45214</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -1495,100 +4601,124 @@
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F36">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="G36">
-        <v>679</v>
+        <v>34680</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I36">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J36" t="str">
+        <f>IF(I36&lt;=35, "A1",IF(I36&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K36" s="2">
+        <f>G36/F36</f>
+        <v>133.38461538461539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>45286</v>
+        <v>45230</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F37">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="G37">
-        <v>7272</v>
+        <v>50274</v>
       </c>
       <c r="H37" t="s">
         <v>18</v>
       </c>
       <c r="I37">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J37" t="str">
+        <f>IF(I37&lt;=35, "A1",IF(I37&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K37" s="2">
+        <f>G37/F37</f>
+        <v>109.29130434782608</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>45289</v>
+        <v>45377</v>
       </c>
       <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>145</v>
+      </c>
+      <c r="G38">
+        <v>43615</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <v>49</v>
+      </c>
+      <c r="J38" t="str">
+        <f>IF(I38&lt;=35, "A1",IF(I38&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K38" s="2">
+        <f>G38/F38</f>
+        <v>300.79310344827587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45467</v>
+      </c>
+      <c r="C39" t="s">
         <v>12</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38">
-        <v>404</v>
-      </c>
-      <c r="G38">
-        <v>13310</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>58</v>
-      </c>
-      <c r="B39" s="1">
-        <v>45292</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F39">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="G39">
-        <v>59248</v>
+        <v>14076</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
@@ -1596,318 +4726,406 @@
       <c r="I39">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J39" t="str">
+        <f>IF(I39&lt;=35, "A1",IF(I39&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K39" s="2">
+        <f>G39/F39</f>
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>45293</v>
+        <v>45489</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F40">
-        <v>368</v>
+        <v>248</v>
       </c>
       <c r="G40">
-        <v>25254</v>
+        <v>12870</v>
       </c>
       <c r="H40" t="s">
         <v>11</v>
       </c>
       <c r="I40">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="J40" t="str">
+        <f>IF(I40&lt;=35, "A1",IF(I40&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K40" s="2">
+        <f>G40/F40</f>
+        <v>51.895161290322584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>45294</v>
+        <v>45221</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G41">
-        <v>33684</v>
+        <v>679</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="J41" t="str">
+        <f>IF(I41&lt;=35, "A1",IF(I41&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K41" s="2">
+        <f>G41/F41</f>
+        <v>4.1151515151515152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>45296</v>
+        <v>45407</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="G42">
-        <v>57706</v>
+        <v>35280</v>
       </c>
       <c r="H42" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J42" t="str">
+        <f>IF(I42&lt;=35, "A1",IF(I42&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K42" s="2">
+        <f>G42/F42</f>
+        <v>691.76470588235293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45424</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="1">
-        <v>45296</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F43">
-        <v>458</v>
+        <v>382</v>
       </c>
       <c r="G43">
-        <v>42873</v>
+        <v>37490</v>
       </c>
       <c r="H43" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I43">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J43" t="str">
+        <f>IF(I43&lt;=35, "A1",IF(I43&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K43" s="2">
+        <f>G43/F43</f>
+        <v>98.141361256544499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>45299</v>
+        <v>45252</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F44">
-        <v>447</v>
+        <v>354</v>
       </c>
       <c r="G44">
-        <v>52269</v>
+        <v>679</v>
       </c>
       <c r="H44" t="s">
         <v>18</v>
       </c>
       <c r="I44">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J44" t="str">
+        <f>IF(I44&lt;=35, "A1",IF(I44&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K44" s="2">
+        <f>G44/F44</f>
+        <v>1.9180790960451977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>45304</v>
+        <v>45451</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F45">
-        <v>250</v>
+        <v>368</v>
       </c>
       <c r="G45">
-        <v>11385</v>
+        <v>46068</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I45">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="J45" t="str">
+        <f>IF(I45&lt;=35, "A1",IF(I45&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K45" s="2">
+        <f>G45/F45</f>
+        <v>125.18478260869566</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>45305</v>
+        <v>45458</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F46">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="G46">
-        <v>75332</v>
+        <v>11078</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
       </c>
       <c r="I46">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="J46" t="str">
+        <f>IF(I46&lt;=35, "A1",IF(I46&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K46" s="2">
+        <f>G46/F46</f>
+        <v>140.22784810126583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>45305</v>
+        <v>45207</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>231</v>
+      </c>
+      <c r="G47">
+        <v>32045</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>28</v>
+      </c>
+      <c r="J47" t="str">
+        <f>IF(I47&lt;=35, "A1",IF(I47&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K47" s="2">
+        <f>G47/F47</f>
+        <v>138.72294372294371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45228</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
         <v>19</v>
-      </c>
-      <c r="E47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47">
-        <v>199</v>
-      </c>
-      <c r="G47">
-        <v>56118</v>
-      </c>
-      <c r="H47" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>86</v>
-      </c>
-      <c r="B48" s="1">
-        <v>45307</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>21</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="F48">
-        <v>60</v>
+        <v>288</v>
       </c>
       <c r="G48">
-        <v>5822</v>
+        <v>33284</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I48">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="J48" t="str">
+        <f>IF(I48&lt;=35, "A1",IF(I48&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K48" s="2">
+        <f>G48/F48</f>
+        <v>115.56944444444444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>45309</v>
+        <v>45191</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
         <v>23</v>
       </c>
       <c r="F49">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="G49">
-        <v>18648</v>
+        <v>11954</v>
       </c>
       <c r="H49" t="s">
         <v>11</v>
       </c>
       <c r="I49">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J49" t="str">
+        <f>IF(I49&lt;=35, "A1",IF(I49&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K49" s="2">
+        <f>G49/F49</f>
+        <v>55.859813084112147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>45318</v>
+        <v>45350</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F50">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="G50">
-        <v>18796</v>
+        <v>36708</v>
       </c>
       <c r="H50" t="s">
         <v>18</v>
@@ -1915,28 +5133,36 @@
       <c r="I50">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J50" t="str">
+        <f>IF(I50&lt;=35, "A1",IF(I50&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K50" s="2">
+        <f>G50/F50</f>
+        <v>496.05405405405406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>45329</v>
+        <v>45234</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F51">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="G51">
-        <v>4984</v>
+        <v>30600</v>
       </c>
       <c r="H51" t="s">
         <v>18</v>
@@ -1944,71 +5170,95 @@
       <c r="I51">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J51" t="str">
+        <f>IF(I51&lt;=35, "A1",IF(I51&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K51" s="2">
+        <f>G51/F51</f>
+        <v>172.88135593220338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>45330</v>
+        <v>45364</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F52">
-        <v>209</v>
+        <v>358</v>
       </c>
       <c r="G52">
-        <v>51221</v>
+        <v>13568</v>
       </c>
       <c r="H52" t="s">
         <v>11</v>
       </c>
       <c r="I52">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="J52" t="str">
+        <f>IF(I52&lt;=35, "A1",IF(I52&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K52" s="2">
+        <f>G52/F52</f>
+        <v>37.899441340782126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>45335</v>
+        <v>45350</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
         <v>17</v>
       </c>
       <c r="F53">
-        <v>494</v>
+        <v>343</v>
       </c>
       <c r="G53">
-        <v>46767</v>
+        <v>33344</v>
       </c>
       <c r="H53" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I53">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J53" t="str">
+        <f>IF(I53&lt;=35, "A1",IF(I53&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K53" s="2">
+        <f>G53/F53</f>
+        <v>97.212827988338191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>45335</v>
+        <v>45216</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -2017,13 +5267,13 @@
         <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F54">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G54">
-        <v>3132</v>
+        <v>3960</v>
       </c>
       <c r="H54" t="s">
         <v>18</v>
@@ -2031,248 +5281,320 @@
       <c r="I54">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J54" t="str">
+        <f>IF(I54&lt;=35, "A1",IF(I54&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K54" s="2">
+        <f>G54/F54</f>
+        <v>62.857142857142854</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>45339</v>
+        <v>45510</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>429</v>
+      </c>
+      <c r="G55">
+        <v>58208</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55">
+        <v>28</v>
+      </c>
+      <c r="J55" t="str">
+        <f>IF(I55&lt;=35, "A1",IF(I55&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K55" s="2">
+        <f>G55/F55</f>
+        <v>135.68298368298369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45549</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
         <v>24</v>
       </c>
-      <c r="E55" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55">
-        <v>499</v>
-      </c>
-      <c r="G55">
-        <v>48316</v>
-      </c>
-      <c r="H55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>96</v>
-      </c>
-      <c r="B56" s="1">
-        <v>45347</v>
-      </c>
-      <c r="C56" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" t="s">
-        <v>21</v>
-      </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F56">
-        <v>128</v>
+        <v>491</v>
       </c>
       <c r="G56">
-        <v>35088</v>
+        <v>59458</v>
       </c>
       <c r="H56" t="s">
         <v>18</v>
       </c>
       <c r="I56">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J56" t="str">
+        <f>IF(I56&lt;=35, "A1",IF(I56&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K56" s="2">
+        <f>G56/F56</f>
+        <v>121.09572301425662</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>45348</v>
+        <v>45193</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>97</v>
+        <v>344</v>
       </c>
       <c r="G57">
-        <v>679</v>
+        <v>13872</v>
       </c>
       <c r="H57" t="s">
         <v>11</v>
       </c>
       <c r="I57">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J57" t="str">
+        <f>IF(I57&lt;=35, "A1",IF(I57&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K57" s="2">
+        <f>G57/F57</f>
+        <v>40.325581395348834</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>45350</v>
+        <v>45296</v>
       </c>
       <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <v>255</v>
+      </c>
+      <c r="G58">
+        <v>57706</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58">
+        <v>25</v>
+      </c>
+      <c r="J58" t="str">
+        <f>IF(I58&lt;=35, "A1",IF(I58&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K58" s="2">
+        <f>G58/F58</f>
+        <v>226.29803921568629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C59" t="s">
         <v>8</v>
       </c>
-      <c r="D58" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
         <v>10</v>
       </c>
-      <c r="F58">
-        <v>308</v>
-      </c>
-      <c r="G58">
-        <v>27956</v>
-      </c>
-      <c r="H58" t="s">
-        <v>28</v>
-      </c>
-      <c r="I58">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>71</v>
-      </c>
-      <c r="B59" s="1">
-        <v>45350</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="F59">
+        <v>160</v>
+      </c>
+      <c r="G59">
+        <v>59248</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59">
+        <v>42</v>
+      </c>
+      <c r="J59" t="str">
+        <f>IF(I59&lt;=35, "A1",IF(I59&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K59" s="2">
+        <f>G59/F59</f>
+        <v>370.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45453</v>
+      </c>
+      <c r="C60" t="s">
         <v>15</v>
       </c>
-      <c r="D59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59">
-        <v>95</v>
-      </c>
-      <c r="G59">
-        <v>46800</v>
-      </c>
-      <c r="H59" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <v>6</v>
-      </c>
-      <c r="B60" s="1">
-        <v>45350</v>
-      </c>
-      <c r="C60" t="s">
-        <v>12</v>
-      </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F60">
-        <v>401</v>
+        <v>322</v>
       </c>
       <c r="G60">
-        <v>19691</v>
+        <v>29440</v>
       </c>
       <c r="H60" t="s">
         <v>18</v>
       </c>
       <c r="I60">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J60" t="str">
+        <f>IF(I60&lt;=35, "A1",IF(I60&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K60" s="2">
+        <f>G60/F60</f>
+        <v>91.428571428571431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>45350</v>
+        <v>45372</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
         <v>17</v>
       </c>
       <c r="F61">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="G61">
-        <v>36708</v>
+        <v>679</v>
       </c>
       <c r="H61" t="s">
         <v>18</v>
       </c>
       <c r="I61">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J61" t="str">
+        <f>IF(I61&lt;=35, "A1",IF(I61&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K61" s="2">
+        <f>G61/F61</f>
+        <v>3.8146067415730336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>45350</v>
+        <v>45286</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F62">
-        <v>535</v>
+        <v>151</v>
       </c>
       <c r="G62">
-        <v>44330</v>
+        <v>8475</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I62">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="J62" t="str">
+        <f>IF(I62&lt;=35, "A1",IF(I62&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K62" s="2">
+        <f>G62/F62</f>
+        <v>56.12582781456954</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1">
         <v>45350</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -2281,97 +5603,121 @@
         <v>17</v>
       </c>
       <c r="F63">
-        <v>380</v>
+        <v>535</v>
       </c>
       <c r="G63">
-        <v>44525</v>
+        <v>44330</v>
       </c>
       <c r="H63" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I63">
         <v>57</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J63" t="str">
+        <f>IF(I63&lt;=35, "A1",IF(I63&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K63" s="2">
+        <f>G63/F63</f>
+        <v>82.859813084112147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>45350</v>
+        <v>45510</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F64">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="G64">
-        <v>33344</v>
+        <v>3186</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I64">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J64" t="str">
+        <f>IF(I64&lt;=35, "A1",IF(I64&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K64" s="2">
+        <f>G64/F64</f>
+        <v>10.445901639344262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>45350</v>
+        <v>45432</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F65">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="G65">
-        <v>16864</v>
+        <v>679</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I65">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J65" t="str">
+        <f>IF(I65&lt;=35, "A1",IF(I65&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K65" s="2">
+        <f>G65/F65</f>
+        <v>3.6117021276595747</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>45356</v>
+        <v>45378</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F66">
-        <v>218</v>
+        <v>495</v>
       </c>
       <c r="G66">
-        <v>7125</v>
+        <v>679</v>
       </c>
       <c r="H66" t="s">
         <v>18</v>
@@ -2379,286 +5725,366 @@
       <c r="I66">
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J66" t="str">
+        <f>IF(I66&lt;=35, "A1",IF(I66&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K66" s="2">
+        <f>G66/F66</f>
+        <v>1.3717171717171717</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>45357</v>
+        <v>45390</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F67">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="G67">
-        <v>679</v>
+        <v>28050</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I67">
         <v>28</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J67" t="str">
+        <f>IF(I67&lt;=35, "A1",IF(I67&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K67" s="2">
+        <f>G67/F67</f>
+        <v>147.63157894736841</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>45361</v>
+        <v>45249</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
       </c>
       <c r="F68">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="G68">
-        <v>46548</v>
+        <v>16698</v>
       </c>
       <c r="H68" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I68">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J68" t="str">
+        <f>IF(I68&lt;=35, "A1",IF(I68&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K68" s="2">
+        <f>G68/F68</f>
+        <v>32.677103718199611</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>45364</v>
+        <v>45350</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F69">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="G69">
-        <v>13568</v>
+        <v>27956</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I69">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="J69" t="str">
+        <f>IF(I69&lt;=35, "A1",IF(I69&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K69" s="2">
+        <f>G69/F69</f>
+        <v>90.766233766233768</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>45369</v>
+        <v>45532</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F70">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="G70">
-        <v>10688</v>
+        <v>679</v>
       </c>
       <c r="H70" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I70">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="J70" t="str">
+        <f>IF(I70&lt;=35, "A1",IF(I70&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K70" s="2">
+        <f>G70/F70</f>
+        <v>3.7103825136612021</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>45370</v>
+        <v>45232</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F71">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="G71">
-        <v>31414</v>
+        <v>36984</v>
       </c>
       <c r="H71" t="s">
         <v>11</v>
       </c>
       <c r="I71">
+        <v>42</v>
+      </c>
+      <c r="J71" t="str">
+        <f>IF(I71&lt;=35, "A1",IF(I71&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K71" s="2">
+        <f>G71/F71</f>
+        <v>110.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45350</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <v>32</v>
-      </c>
-      <c r="B72" s="1">
-        <v>45371</v>
-      </c>
-      <c r="C72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" t="s">
-        <v>24</v>
-      </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F72">
-        <v>389</v>
+        <v>95</v>
       </c>
       <c r="G72">
-        <v>37744</v>
+        <v>46800</v>
       </c>
       <c r="H72" t="s">
         <v>18</v>
       </c>
       <c r="I72">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="J72" t="str">
+        <f>IF(I72&lt;=35, "A1",IF(I72&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K72" s="2">
+        <f>G72/F72</f>
+        <v>492.63157894736844</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>45372</v>
+        <v>45356</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F73">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="G73">
-        <v>679</v>
+        <v>7125</v>
       </c>
       <c r="H73" t="s">
         <v>18</v>
       </c>
       <c r="I73">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J73" t="str">
+        <f>IF(I73&lt;=35, "A1",IF(I73&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K73" s="2">
+        <f>G73/F73</f>
+        <v>32.683486238532112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>45374</v>
+        <v>45506</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74">
+        <v>265</v>
+      </c>
+      <c r="G74">
+        <v>12320</v>
+      </c>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74">
+        <v>42</v>
+      </c>
+      <c r="J74" t="str">
+        <f>IF(I74&lt;=35, "A1",IF(I74&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K74" s="2">
+        <f>G74/F74</f>
+        <v>46.490566037735846</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45197</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
         <v>23</v>
       </c>
-      <c r="F74">
-        <v>527</v>
-      </c>
-      <c r="G74">
-        <v>51168</v>
-      </c>
-      <c r="H74" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75">
-        <v>37</v>
-      </c>
-      <c r="B75" s="1">
-        <v>45377</v>
-      </c>
-      <c r="C75" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" t="s">
-        <v>10</v>
-      </c>
       <c r="F75">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="G75">
-        <v>43615</v>
+        <v>42028</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I75">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="J75" t="str">
+        <f>IF(I75&lt;=35, "A1",IF(I75&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K75" s="2">
+        <f>G75/F75</f>
+        <v>197.31455399061034</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>45378</v>
+        <v>45357</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
       </c>
       <c r="F76">
-        <v>495</v>
+        <v>128</v>
       </c>
       <c r="G76">
         <v>679</v>
@@ -2667,163 +6093,211 @@
         <v>18</v>
       </c>
       <c r="I76">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="J76" t="str">
+        <f>IF(I76&lt;=35, "A1",IF(I76&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K76" s="2">
+        <f>G76/F76</f>
+        <v>5.3046875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>45380</v>
+        <v>45217</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F77">
-        <v>412</v>
+        <v>208</v>
       </c>
       <c r="G77">
-        <v>22288</v>
+        <v>25758</v>
       </c>
       <c r="H77" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I77">
         <v>25</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J77" t="str">
+        <f>IF(I77&lt;=35, "A1",IF(I77&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K77" s="2">
+        <f>G77/F77</f>
+        <v>123.83653846153847</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>45381</v>
+        <v>45478</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F78">
-        <v>363</v>
+        <v>115</v>
       </c>
       <c r="G78">
-        <v>38232</v>
+        <v>34804</v>
       </c>
       <c r="H78" t="s">
         <v>11</v>
       </c>
       <c r="I78">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J78" t="str">
+        <f>IF(I78&lt;=35, "A1",IF(I78&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K78" s="2">
+        <f>G78/F78</f>
+        <v>302.64347826086959</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>45383</v>
+        <v>45469</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F79">
-        <v>155</v>
+        <v>465</v>
       </c>
       <c r="G79">
-        <v>11092</v>
+        <v>679</v>
       </c>
       <c r="H79" t="s">
         <v>11</v>
       </c>
       <c r="I79">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J79" t="str">
+        <f>IF(I79&lt;=35, "A1",IF(I79&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K79" s="2">
+        <f>G79/F79</f>
+        <v>1.4602150537634409</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>45390</v>
+        <v>45544</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F80">
-        <v>190</v>
+        <v>519</v>
       </c>
       <c r="G80">
-        <v>28050</v>
+        <v>45312</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I80">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J80" t="str">
+        <f>IF(I80&lt;=35, "A1",IF(I80&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K80" s="2">
+        <f>G80/F80</f>
+        <v>87.306358381502889</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>45392</v>
+        <v>45350</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F81">
-        <v>51</v>
+        <v>380</v>
       </c>
       <c r="G81">
-        <v>56888</v>
+        <v>44525</v>
       </c>
       <c r="H81" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I81">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="J81" t="str">
+        <f>IF(I81&lt;=35, "A1",IF(I81&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K81" s="2">
+        <f>G81/F81</f>
+        <v>117.17105263157895</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>45398</v>
+        <v>45335</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
@@ -2832,239 +6306,303 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>383</v>
+        <v>32</v>
       </c>
       <c r="G82">
-        <v>39008</v>
+        <v>3132</v>
       </c>
       <c r="H82" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I82">
         <v>42</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J82" t="str">
+        <f>IF(I82&lt;=35, "A1",IF(I82&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K82" s="2">
+        <f>G82/F82</f>
+        <v>97.875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>45407</v>
+        <v>45457</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
       </c>
       <c r="F83">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="G83">
-        <v>35280</v>
+        <v>16740</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I83">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J83" t="str">
+        <f>IF(I83&lt;=35, "A1",IF(I83&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K83" s="2">
+        <f>G83/F83</f>
+        <v>128.76923076923077</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>45410</v>
+        <v>45254</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F84">
-        <v>462</v>
+        <v>545</v>
       </c>
       <c r="G84">
-        <v>26145</v>
+        <v>65250</v>
       </c>
       <c r="H84" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I84">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J84" t="str">
+        <f>IF(I84&lt;=35, "A1",IF(I84&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K84" s="2">
+        <f>G84/F84</f>
+        <v>119.72477064220183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>45412</v>
+        <v>45369</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F85">
-        <v>236</v>
+        <v>84</v>
       </c>
       <c r="G85">
-        <v>679</v>
+        <v>10688</v>
       </c>
       <c r="H85" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I85">
         <v>28</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J85" t="str">
+        <f>IF(I85&lt;=35, "A1",IF(I85&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K85" s="2">
+        <f>G85/F85</f>
+        <v>127.23809523809524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>45420</v>
+        <v>45309</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F86">
-        <v>430</v>
+        <v>192</v>
       </c>
       <c r="G86">
-        <v>66500</v>
+        <v>18648</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
       </c>
       <c r="I86">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J86" t="str">
+        <f>IF(I86&lt;=35, "A1",IF(I86&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K86" s="2">
+        <f>G86/F86</f>
+        <v>97.125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>45422</v>
+        <v>45307</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F87">
-        <v>511</v>
+        <v>60</v>
       </c>
       <c r="G87">
-        <v>679</v>
+        <v>5822</v>
       </c>
       <c r="H87" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I87">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="J87" t="str">
+        <f>IF(I87&lt;=35, "A1",IF(I87&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K87" s="2">
+        <f>G87/F87</f>
+        <v>97.033333333333331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>45424</v>
+        <v>45330</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F88">
-        <v>382</v>
+        <v>209</v>
       </c>
       <c r="G88">
-        <v>37490</v>
+        <v>51221</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I88">
         <v>42</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J88" t="str">
+        <f>IF(I88&lt;=35, "A1",IF(I88&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K88" s="2">
+        <f>G88/F88</f>
+        <v>245.07655502392345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>45427</v>
+        <v>45305</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F89">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="G89">
-        <v>24549</v>
+        <v>75332</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I89">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="J89" t="str">
+        <f>IF(I89&lt;=35, "A1",IF(I89&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K89" s="2">
+        <f>G89/F89</f>
+        <v>285.34848484848487</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>45432</v>
+        <v>45348</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E90" t="s">
         <v>23</v>
       </c>
       <c r="F90">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="G90">
         <v>679</v>
@@ -3073,317 +6611,405 @@
         <v>11</v>
       </c>
       <c r="I90">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J90" t="str">
+        <f>IF(I90&lt;=35, "A1",IF(I90&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K90" s="2">
+        <f>G90/F90</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45289</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91">
+        <v>404</v>
+      </c>
+      <c r="G91">
+        <v>13310</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91">
+        <v>26</v>
+      </c>
+      <c r="J91" t="str">
+        <f>IF(I91&lt;=35, "A1",IF(I91&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K91" s="2">
+        <f>G91/F91</f>
+        <v>32.945544554455445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B92" s="1">
         <v>45444</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>15</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>24</v>
-      </c>
-      <c r="E91" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91">
-        <v>386</v>
-      </c>
-      <c r="G91">
-        <v>47952</v>
-      </c>
-      <c r="H91" t="s">
-        <v>18</v>
-      </c>
-      <c r="I91">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A92">
-        <v>5</v>
-      </c>
-      <c r="B92" s="1">
-        <v>45449</v>
-      </c>
-      <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" t="s">
-        <v>20</v>
       </c>
       <c r="E92" t="s">
         <v>17</v>
       </c>
       <c r="F92">
-        <v>178</v>
+        <v>386</v>
       </c>
       <c r="G92">
-        <v>41349</v>
+        <v>47952</v>
       </c>
       <c r="H92" t="s">
         <v>18</v>
       </c>
       <c r="I92">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J92" t="str">
+        <f>IF(I92&lt;=35, "A1",IF(I92&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K92" s="2">
+        <f>G92/F92</f>
+        <v>124.2279792746114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>45451</v>
+        <v>45329</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F93">
-        <v>368</v>
+        <v>214</v>
       </c>
       <c r="G93">
-        <v>46068</v>
+        <v>4984</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I93">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J93" t="str">
+        <f>IF(I93&lt;=35, "A1",IF(I93&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K93" s="2">
+        <f>G93/F93</f>
+        <v>23.289719626168225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>45453</v>
+        <v>45277</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E94" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F94">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="G94">
-        <v>29440</v>
+        <v>4131</v>
       </c>
       <c r="H94" t="s">
         <v>18</v>
       </c>
       <c r="I94">
+        <v>28</v>
+      </c>
+      <c r="J94" t="str">
+        <f>IF(I94&lt;=35, "A1",IF(I94&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K94" s="2">
+        <f>G94/F94</f>
+        <v>11.28688524590164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45427</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A95">
-        <v>82</v>
-      </c>
-      <c r="B95" s="1">
-        <v>45457</v>
-      </c>
-      <c r="C95" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" t="s">
-        <v>9</v>
-      </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F95">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="G95">
-        <v>16740</v>
+        <v>24549</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I95">
         <v>25</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J95" t="str">
+        <f>IF(I95&lt;=35, "A1",IF(I95&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K95" s="2">
+        <f>G95/F95</f>
+        <v>141.90173410404626</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>45458</v>
+        <v>45521</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F96">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="G96">
-        <v>11078</v>
+        <v>679</v>
       </c>
       <c r="H96" t="s">
         <v>11</v>
       </c>
       <c r="I96">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J96" t="str">
+        <f>IF(I96&lt;=35, "A1",IF(I96&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K96" s="2">
+        <f>G96/F96</f>
+        <v>2.2189542483660132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>45464</v>
+        <v>45347</v>
       </c>
       <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>128</v>
+      </c>
+      <c r="G97">
+        <v>35088</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97">
+        <v>28</v>
+      </c>
+      <c r="J97" t="str">
+        <f>IF(I97&lt;=35, "A1",IF(I97&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K97" s="2">
+        <f>G97/F97</f>
+        <v>274.125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45293</v>
+      </c>
+      <c r="C98" t="s">
         <v>12</v>
       </c>
-      <c r="D97" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
         <v>23</v>
       </c>
-      <c r="F97">
-        <v>216</v>
-      </c>
-      <c r="G97">
-        <v>36934</v>
-      </c>
-      <c r="H97" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A98">
-        <v>14</v>
-      </c>
-      <c r="B98" s="1">
-        <v>45465</v>
-      </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
       <c r="F98">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="G98">
-        <v>679</v>
+        <v>25254</v>
       </c>
       <c r="H98" t="s">
         <v>11</v>
       </c>
       <c r="I98">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J98" t="str">
+        <f>IF(I98&lt;=35, "A1",IF(I98&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K98" s="2">
+        <f>G98/F98</f>
+        <v>68.625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>45467</v>
+        <v>45282</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F99">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="G99">
-        <v>14076</v>
+        <v>17500</v>
       </c>
       <c r="H99" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I99">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="J99" t="str">
+        <f>IF(I99&lt;=35, "A1",IF(I99&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K99" s="2">
+        <f>G99/F99</f>
+        <v>78.828828828828833</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>45469</v>
+        <v>45464</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F100">
-        <v>443</v>
+        <v>216</v>
       </c>
       <c r="G100">
-        <v>50652</v>
+        <v>36934</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I100">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="J100" t="str">
+        <f>IF(I100&lt;=35, "A1",IF(I100&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K100" s="2">
+        <f>G100/F100</f>
+        <v>170.99074074074073</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>45469</v>
+        <v>45286</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F101">
-        <v>465</v>
+        <v>307</v>
       </c>
       <c r="G101">
         <v>679</v>
@@ -3392,218 +7018,282 @@
         <v>11</v>
       </c>
       <c r="I101">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="J101" t="str">
+        <f>IF(I101&lt;=35, "A1",IF(I101&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K101" s="2">
+        <f>G101/F101</f>
+        <v>2.2117263843648209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>45472</v>
+        <v>45215</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F102">
-        <v>68</v>
+        <v>384</v>
       </c>
       <c r="G102">
-        <v>11696</v>
+        <v>40565</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I102">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J102" t="str">
+        <f>IF(I102&lt;=35, "A1",IF(I102&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K102" s="2">
+        <f>G102/F102</f>
+        <v>105.63802083333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>45472</v>
+        <v>45497</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E103" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F103">
-        <v>435</v>
+        <v>376</v>
       </c>
       <c r="G103">
-        <v>64090</v>
+        <v>679</v>
       </c>
       <c r="H103" t="s">
         <v>11</v>
       </c>
       <c r="I103">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J103" t="str">
+        <f>IF(I103&lt;=35, "A1",IF(I103&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K103" s="2">
+        <f>G103/F103</f>
+        <v>1.8058510638297873</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>45478</v>
+        <v>45274</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F104">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G104">
-        <v>34804</v>
+        <v>679</v>
       </c>
       <c r="H104" t="s">
         <v>11</v>
       </c>
       <c r="I104">
+        <v>57</v>
+      </c>
+      <c r="J104" t="str">
+        <f>IF(I104&lt;=35, "A1",IF(I104&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K104" s="2">
+        <f>G104/F104</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45243</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105">
+        <v>359</v>
+      </c>
+      <c r="G105">
+        <v>12753</v>
+      </c>
+      <c r="H105" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105">
         <v>42</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105">
-        <v>39</v>
-      </c>
-      <c r="B105" s="1">
-        <v>45489</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="J105" t="str">
+        <f>IF(I105&lt;=35, "A1",IF(I105&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K105" s="2">
+        <f>G105/F105</f>
+        <v>35.523676880222844</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45350</v>
+      </c>
+      <c r="C106" t="s">
         <v>15</v>
       </c>
-      <c r="D105" t="s">
-        <v>16</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106">
+        <v>318</v>
+      </c>
+      <c r="G106">
+        <v>16864</v>
+      </c>
+      <c r="H106" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106">
+        <v>42</v>
+      </c>
+      <c r="J106" t="str">
+        <f>IF(I106&lt;=35, "A1",IF(I106&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K106" s="2">
+        <f>G106/F106</f>
+        <v>53.031446540880502</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45392</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" t="s">
         <v>10</v>
       </c>
-      <c r="F105">
-        <v>248</v>
-      </c>
-      <c r="G105">
-        <v>12870</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="F107">
+        <v>51</v>
+      </c>
+      <c r="G107">
+        <v>56888</v>
+      </c>
+      <c r="H107" t="s">
         <v>11</v>
       </c>
-      <c r="I105">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106">
-        <v>102</v>
-      </c>
-      <c r="B106" s="1">
-        <v>45497</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="I107">
+        <v>42</v>
+      </c>
+      <c r="J107" t="str">
+        <f>IF(I107&lt;=35, "A1",IF(I107&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K107" s="2">
+        <f>G107/F107</f>
+        <v>1115.4509803921569</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45412</v>
+      </c>
+      <c r="C108" t="s">
         <v>27</v>
       </c>
-      <c r="D106" t="s">
-        <v>20</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106">
-        <v>376</v>
-      </c>
-      <c r="G106">
-        <v>679</v>
-      </c>
-      <c r="H106" t="s">
-        <v>11</v>
-      </c>
-      <c r="I106">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A107">
-        <v>111</v>
-      </c>
-      <c r="B107" s="1">
-        <v>45497</v>
-      </c>
-      <c r="C107" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" t="s">
-        <v>20</v>
-      </c>
-      <c r="E107" t="s">
-        <v>23</v>
-      </c>
-      <c r="F107">
-        <v>319</v>
-      </c>
-      <c r="G107">
-        <v>4221</v>
-      </c>
-      <c r="H107" t="s">
-        <v>18</v>
-      </c>
-      <c r="I107">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A108">
-        <v>3</v>
-      </c>
-      <c r="B108" s="1">
-        <v>45504</v>
-      </c>
-      <c r="C108" t="s">
-        <v>15</v>
-      </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E108" t="s">
         <v>17</v>
       </c>
       <c r="F108">
-        <v>478</v>
+        <v>236</v>
       </c>
       <c r="G108">
-        <v>76076</v>
+        <v>679</v>
       </c>
       <c r="H108" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I108">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="J108" t="str">
+        <f>IF(I108&lt;=35, "A1",IF(I108&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K108" s="2">
+        <f>G108/F108</f>
+        <v>2.8771186440677967</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>45506</v>
+        <v>45264</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
@@ -3612,303 +7302,383 @@
         <v>24</v>
       </c>
       <c r="E109" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F109">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="G109">
-        <v>12320</v>
+        <v>31122</v>
       </c>
       <c r="H109" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I109">
         <v>42</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J109" t="str">
+        <f>IF(I109&lt;=35, "A1",IF(I109&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K109" s="2">
+        <f>G109/F109</f>
+        <v>145.42990654205607</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>45508</v>
+        <v>45256</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
       </c>
       <c r="F110">
-        <v>396</v>
+        <v>86</v>
       </c>
       <c r="G110">
-        <v>38480</v>
+        <v>25853</v>
       </c>
       <c r="H110" t="s">
         <v>11</v>
       </c>
       <c r="I110">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="J110" t="str">
+        <f>IF(I110&lt;=35, "A1",IF(I110&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K110" s="2">
+        <f>G110/F110</f>
+        <v>300.61627906976742</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>45510</v>
+        <v>45383</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111">
+        <v>155</v>
+      </c>
+      <c r="G111">
+        <v>11092</v>
+      </c>
+      <c r="H111" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111">
+        <v>52</v>
+      </c>
+      <c r="J111" t="str">
+        <f>IF(I111&lt;=35, "A1",IF(I111&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K111" s="2">
+        <f>G111/F111</f>
+        <v>71.561290322580646</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45497</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112">
+        <v>319</v>
+      </c>
+      <c r="G112">
+        <v>4221</v>
+      </c>
+      <c r="H112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112">
+        <v>26</v>
+      </c>
+      <c r="J112" t="str">
+        <f>IF(I112&lt;=35, "A1",IF(I112&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K112" s="2">
+        <f>G112/F112</f>
+        <v>13.231974921630094</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45527</v>
+      </c>
+      <c r="C113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" t="s">
         <v>10</v>
       </c>
-      <c r="F111">
-        <v>429</v>
-      </c>
-      <c r="G111">
-        <v>58208</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="F113">
+        <v>62</v>
+      </c>
+      <c r="G113">
+        <v>31500</v>
+      </c>
+      <c r="H113" t="s">
         <v>18</v>
       </c>
-      <c r="I111">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A112">
-        <v>63</v>
-      </c>
-      <c r="B112" s="1">
-        <v>45510</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="I113">
+        <v>25</v>
+      </c>
+      <c r="J113" t="str">
+        <f>IF(I113&lt;=35, "A1",IF(I113&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K113" s="2">
+        <f>G113/F113</f>
+        <v>508.06451612903226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45370</v>
+      </c>
+      <c r="C114" t="s">
         <v>27</v>
       </c>
-      <c r="D112" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112">
-        <v>305</v>
-      </c>
-      <c r="G112">
-        <v>3186</v>
-      </c>
-      <c r="H112" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A113">
-        <v>27</v>
-      </c>
-      <c r="B113" s="1">
-        <v>45511</v>
-      </c>
-      <c r="C113" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" t="s">
-        <v>24</v>
-      </c>
-      <c r="E113" t="s">
-        <v>23</v>
-      </c>
-      <c r="F113">
-        <v>422</v>
-      </c>
-      <c r="G113">
-        <v>13490</v>
-      </c>
-      <c r="H113" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A114">
-        <v>23</v>
-      </c>
-      <c r="B114" s="1">
-        <v>45520</v>
-      </c>
-      <c r="C114" t="s">
-        <v>15</v>
-      </c>
       <c r="D114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
       </c>
       <c r="F114">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G114">
-        <v>42328</v>
+        <v>31414</v>
       </c>
       <c r="H114" t="s">
         <v>11</v>
       </c>
       <c r="I114">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J114" t="str">
+        <f>IF(I114&lt;=35, "A1",IF(I114&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K114" s="2">
+        <f>G114/F114</f>
+        <v>387.82716049382714</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>45521</v>
+        <v>45233</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F115">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c r="G115">
-        <v>679</v>
+        <v>40446</v>
       </c>
       <c r="H115" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I115">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="J115" t="str">
+        <f>IF(I115&lt;=35, "A1",IF(I115&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K115" s="2">
+        <f>G115/F115</f>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>45527</v>
+        <v>45232</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
       </c>
       <c r="F116">
-        <v>62</v>
+        <v>541</v>
       </c>
       <c r="G116">
-        <v>31500</v>
+        <v>42432</v>
       </c>
       <c r="H116" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I116">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J116" t="str">
+        <f>IF(I116&lt;=35, "A1",IF(I116&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K116" s="2">
+        <f>G116/F116</f>
+        <v>78.432532347504619</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>45530</v>
+        <v>45240</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F117">
-        <v>406</v>
+        <v>666</v>
       </c>
       <c r="G117">
-        <v>47880</v>
+        <v>64635</v>
       </c>
       <c r="H117" t="s">
         <v>18</v>
       </c>
       <c r="I117">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="J117" t="str">
+        <f>IF(I117&lt;=35, "A1",IF(I117&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K117" s="2">
+        <f>G117/F117</f>
+        <v>97.049549549549553</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>45532</v>
+        <v>45374</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F118">
-        <v>183</v>
+        <v>527</v>
       </c>
       <c r="G118">
-        <v>679</v>
+        <v>51168</v>
       </c>
       <c r="H118" t="s">
         <v>18</v>
       </c>
       <c r="I118">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J118" t="str">
+        <f>IF(I118&lt;=35, "A1",IF(I118&lt;=45,"A2","A3"))</f>
+        <v>A1</v>
+      </c>
+      <c r="K118" s="2">
+        <f>G118/F118</f>
+        <v>97.092979127134726</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>45543</v>
+        <v>45273</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
         <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F119">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="G119">
-        <v>5246</v>
+        <v>24948</v>
       </c>
       <c r="H119" t="s">
         <v>18</v>
@@ -3916,67 +7686,163 @@
       <c r="I119">
         <v>42</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J119" t="str">
+        <f>IF(I119&lt;=35, "A1",IF(I119&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K119" s="2">
+        <f>G119/F119</f>
+        <v>86.325259515570934</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>45544</v>
+        <v>45305</v>
       </c>
       <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120">
+        <v>199</v>
+      </c>
+      <c r="G120">
+        <v>56118</v>
+      </c>
+      <c r="H120" t="s">
+        <v>28</v>
+      </c>
+      <c r="I120">
+        <v>57</v>
+      </c>
+      <c r="J120" t="str">
+        <f>IF(I120&lt;=35, "A1",IF(I120&lt;=45,"A2","A3"))</f>
+        <v>A3</v>
+      </c>
+      <c r="K120" s="2">
+        <f>G120/F120</f>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45361</v>
+      </c>
+      <c r="C121" t="s">
         <v>27</v>
       </c>
-      <c r="D120" t="s">
-        <v>24</v>
-      </c>
-      <c r="E120" t="s">
-        <v>17</v>
-      </c>
-      <c r="F120">
-        <v>519</v>
-      </c>
-      <c r="G120">
-        <v>45312</v>
-      </c>
-      <c r="H120" t="s">
-        <v>18</v>
-      </c>
-      <c r="I120">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A121">
-        <v>55</v>
-      </c>
-      <c r="B121" s="1">
-        <v>45549</v>
-      </c>
-      <c r="C121" t="s">
-        <v>8</v>
-      </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F121">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G121">
-        <v>59458</v>
+        <v>46548</v>
       </c>
       <c r="H121" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I121">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="J121" t="str">
+        <f>IF(I121&lt;=35, "A1",IF(I121&lt;=45,"A2","A3"))</f>
+        <v>A2</v>
+      </c>
+      <c r="K121" s="2">
+        <f>G121/F121</f>
+        <v>93.6579476861167</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I121" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K121" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K121">
+      <sortCondition ref="A1:A121"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8690076B-8A93-4967-9D6F-750270259BA9}">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1152805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
+        <v>604575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5">
+        <v>703282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5">
+        <v>910416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3371078</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>